--- a/statistics/statistics_70_3_200_1.xlsx
+++ b/statistics/statistics_70_3_200_1.xlsx
@@ -487,10 +487,10 @@
         <v>17.94827906481845</v>
       </c>
       <c r="G2">
-        <v>74.13038727351888</v>
+        <v>75.17253906259769</v>
       </c>
       <c r="H2">
-        <v>4.130222569295041</v>
+        <v>4.188286731620309</v>
       </c>
       <c r="I2">
         <v>70</v>
@@ -528,10 +528,10 @@
         <v>20.77616515624208</v>
       </c>
       <c r="G3">
-        <v>50.17672378122897</v>
+        <v>41.45877320543772</v>
       </c>
       <c r="H3">
-        <v>2.415109978376047</v>
+        <v>1.995496902034478</v>
       </c>
       <c r="I3">
         <v>70</v>
@@ -569,10 +569,10 @@
         <v>22.2208554891313</v>
       </c>
       <c r="G4">
-        <v>33.19209777852731</v>
+        <v>32.82951004874731</v>
       </c>
       <c r="H4">
-        <v>1.493736269279204</v>
+        <v>1.477418817867068</v>
       </c>
       <c r="I4">
         <v>70</v>
@@ -610,10 +610,10 @@
         <v>21.83031551491332</v>
       </c>
       <c r="G5">
-        <v>42.92899481035813</v>
+        <v>38.99693567293362</v>
       </c>
       <c r="H5">
-        <v>1.966485311723109</v>
+        <v>1.786366103883976</v>
       </c>
       <c r="I5">
         <v>70</v>
@@ -651,10 +651,10 @@
         <v>15.54900450208879</v>
       </c>
       <c r="G6">
-        <v>45.57913575763984</v>
+        <v>42.62121031591623</v>
       </c>
       <c r="H6">
-        <v>2.931321793077938</v>
+        <v>2.741089328914315</v>
       </c>
       <c r="I6">
         <v>70</v>
@@ -692,10 +692,10 @@
         <v>112.6966620646871</v>
       </c>
       <c r="G7">
-        <v>88.52894011154999</v>
+        <v>90.17548792134531</v>
       </c>
       <c r="H7">
-        <v>0.785550685261068</v>
+        <v>0.8001611251767615</v>
       </c>
       <c r="I7">
         <v>70</v>
@@ -733,10 +733,10 @@
         <v>10.42763777637533</v>
       </c>
       <c r="G8">
-        <v>43.19834984425776</v>
+        <v>45.79194179155397</v>
       </c>
       <c r="H8">
-        <v>4.142678406237623</v>
+        <v>4.391401271657076</v>
       </c>
       <c r="I8">
         <v>70</v>
@@ -774,10 +774,10 @@
         <v>9.598159591780577</v>
       </c>
       <c r="G9">
-        <v>37.71785038847172</v>
+        <v>42.4338049218881</v>
       </c>
       <c r="H9">
-        <v>3.929696107655009</v>
+        <v>4.421035565841859</v>
       </c>
       <c r="I9">
         <v>70</v>
@@ -815,10 +815,10 @@
         <v>11.20370667039757</v>
       </c>
       <c r="G10">
-        <v>32.94529266697958</v>
+        <v>30.85314796492898</v>
       </c>
       <c r="H10">
-        <v>2.940570798236589</v>
+        <v>2.753833965186642</v>
       </c>
       <c r="I10">
         <v>70</v>
@@ -856,10 +856,10 @@
         <v>16.45652920812255</v>
       </c>
       <c r="G11">
-        <v>50.11049156865052</v>
+        <v>50.17943710733019</v>
       </c>
       <c r="H11">
-        <v>3.045021883710277</v>
+        <v>3.049211438980877</v>
       </c>
       <c r="I11">
         <v>70</v>
@@ -897,10 +897,10 @@
         <v>12.77569742324418</v>
       </c>
       <c r="G12">
-        <v>43.73606092817804</v>
+        <v>42.92282107595251</v>
       </c>
       <c r="H12">
-        <v>3.423379521231021</v>
+        <v>3.359724299501527</v>
       </c>
       <c r="I12">
         <v>70</v>
@@ -938,10 +938,10 @@
         <v>8.049231226310987</v>
       </c>
       <c r="G13">
-        <v>37.27480990676797</v>
+        <v>33.68210803386253</v>
       </c>
       <c r="H13">
-        <v>4.630853414289509</v>
+        <v>4.184512419492172</v>
       </c>
       <c r="I13">
         <v>70</v>

--- a/statistics/statistics_70_3_200_1.xlsx
+++ b/statistics/statistics_70_3_200_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>number</t>
   </si>
@@ -56,24 +56,6 @@
   </si>
   <si>
     <t>new_1.bmp</t>
-  </si>
-  <si>
-    <t>new_1_hidden.bmp</t>
-  </si>
-  <si>
-    <t>new_2_hidden.bmp</t>
-  </si>
-  <si>
-    <t>new_3_hidden.bmp</t>
-  </si>
-  <si>
-    <t>new_6_hidden.bmp</t>
-  </si>
-  <si>
-    <t>new_7_hidden.bmp</t>
-  </si>
-  <si>
-    <t>new_8_hidden.bmp</t>
   </si>
   <si>
     <t>new_2.bmp</t>
@@ -420,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -478,19 +460,19 @@
         <v>0.3696062174854119</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>16.68797387440983</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>60.5</v>
       </c>
       <c r="F2">
         <v>17.94827906481845</v>
       </c>
       <c r="G2">
-        <v>75.17253906259769</v>
+        <v>71.10639504367437</v>
       </c>
       <c r="H2">
-        <v>4.188286731620309</v>
+        <v>3.961738882423244</v>
       </c>
       <c r="I2">
         <v>70</v>
@@ -510,28 +492,28 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3">
-        <v>0.5479291501237968</v>
+        <v>0.6422268349217991</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>28.60012043855783</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>90.29535864978902</v>
       </c>
       <c r="F3">
-        <v>20.77616515624208</v>
+        <v>9.598159591780577</v>
       </c>
       <c r="G3">
-        <v>41.45877320543772</v>
+        <v>38.87279821600372</v>
       </c>
       <c r="H3">
-        <v>1.995496902034478</v>
+        <v>4.050026241415344</v>
       </c>
       <c r="I3">
         <v>70</v>
@@ -551,28 +533,28 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4">
-        <v>0.8032028801092455</v>
+        <v>0.8477416779334838</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>34.42298204715869</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>88.42105263157895</v>
       </c>
       <c r="F4">
-        <v>22.2208554891313</v>
+        <v>11.20370667039757</v>
       </c>
       <c r="G4">
-        <v>32.82951004874731</v>
+        <v>29.10983640032272</v>
       </c>
       <c r="H4">
-        <v>1.477418817867068</v>
+        <v>2.598232643597919</v>
       </c>
       <c r="I4">
         <v>70</v>
@@ -592,28 +574,28 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
       <c r="C5">
-        <v>0.737061163549347</v>
+        <v>0.6125158587318915</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>24.41684123565338</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>62.65060240963856</v>
       </c>
       <c r="F5">
-        <v>21.83031551491332</v>
+        <v>16.45652920812255</v>
       </c>
       <c r="G5">
-        <v>38.99693567293362</v>
+        <v>47.37127135998517</v>
       </c>
       <c r="H5">
-        <v>1.786366103883976</v>
+        <v>2.87857000470086</v>
       </c>
       <c r="I5">
         <v>70</v>
@@ -633,28 +615,28 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6">
-        <v>0.706368750208386</v>
+        <v>0.7097203991847449</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>27.89873952074085</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>79.18367346938776</v>
       </c>
       <c r="F6">
-        <v>15.54900450208879</v>
+        <v>12.77569742324418</v>
       </c>
       <c r="G6">
-        <v>42.62121031591623</v>
+        <v>41.23891613228524</v>
       </c>
       <c r="H6">
-        <v>2.741089328914315</v>
+        <v>3.227918975073323</v>
       </c>
       <c r="I6">
         <v>70</v>
@@ -674,28 +656,28 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
       <c r="C7">
-        <v>0.3641167011256605</v>
+        <v>0.9523874035589214</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>36.24762072492532</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>88.77551020408163</v>
       </c>
       <c r="F7">
-        <v>112.6966620646871</v>
+        <v>8.049231226310987</v>
       </c>
       <c r="G7">
-        <v>90.17548792134531</v>
+        <v>35.3126315163339</v>
       </c>
       <c r="H7">
-        <v>0.8001611251767615</v>
+        <v>4.387081265712117</v>
       </c>
       <c r="I7">
         <v>70</v>
@@ -710,252 +692,6 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8">
-        <v>0.5997664425573406</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>10.42763777637533</v>
-      </c>
-      <c r="G8">
-        <v>45.79194179155397</v>
-      </c>
-      <c r="H8">
-        <v>4.391401271657076</v>
-      </c>
-      <c r="I8">
-        <v>70</v>
-      </c>
-      <c r="J8">
-        <v>3</v>
-      </c>
-      <c r="K8">
-        <v>200</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9">
-        <v>0.6422268349217991</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>9.598159591780577</v>
-      </c>
-      <c r="G9">
-        <v>42.4338049218881</v>
-      </c>
-      <c r="H9">
-        <v>4.421035565841859</v>
-      </c>
-      <c r="I9">
-        <v>70</v>
-      </c>
-      <c r="J9">
-        <v>3</v>
-      </c>
-      <c r="K9">
-        <v>200</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10">
-        <v>0.8477416779334838</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>11.20370667039757</v>
-      </c>
-      <c r="G10">
-        <v>30.85314796492898</v>
-      </c>
-      <c r="H10">
-        <v>2.753833965186642</v>
-      </c>
-      <c r="I10">
-        <v>70</v>
-      </c>
-      <c r="J10">
-        <v>3</v>
-      </c>
-      <c r="K10">
-        <v>200</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11">
-        <v>0.6125158587318915</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>16.45652920812255</v>
-      </c>
-      <c r="G11">
-        <v>50.17943710733019</v>
-      </c>
-      <c r="H11">
-        <v>3.049211438980877</v>
-      </c>
-      <c r="I11">
-        <v>70</v>
-      </c>
-      <c r="J11">
-        <v>3</v>
-      </c>
-      <c r="K11">
-        <v>200</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12">
-        <v>0.7097203991847449</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>12.77569742324418</v>
-      </c>
-      <c r="G12">
-        <v>42.92282107595251</v>
-      </c>
-      <c r="H12">
-        <v>3.359724299501527</v>
-      </c>
-      <c r="I12">
-        <v>70</v>
-      </c>
-      <c r="J12">
-        <v>3</v>
-      </c>
-      <c r="K12">
-        <v>200</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13">
-        <v>0.9523874035589214</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>8.049231226310987</v>
-      </c>
-      <c r="G13">
-        <v>33.68210803386253</v>
-      </c>
-      <c r="H13">
-        <v>4.184512419492172</v>
-      </c>
-      <c r="I13">
-        <v>70</v>
-      </c>
-      <c r="J13">
-        <v>3</v>
-      </c>
-      <c r="K13">
-        <v>200</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
         <v>20</v>
       </c>
     </row>
